--- a/portfolio_data_extended.xlsx
+++ b/portfolio_data_extended.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data Science Projects\portfolio_sql_data_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9D32FE-EDBD-47D8-98FA-CFC2E85093E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AE4769-F267-4E6A-B083-E7BE8E070318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38295" yWindow="0" windowWidth="38610" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,20 @@
     <sheet name="holdings" sheetId="3" r:id="rId3"/>
     <sheet name="cash" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -190,8 +203,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,7 +512,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -612,7 +630,7 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,7 +1760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
@@ -2871,13 +2889,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -2888,7 +2913,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -2899,7 +2924,7 @@
         <v>46410</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2910,7 +2935,7 @@
         <v>43314</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2921,7 +2946,7 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -2932,7 +2957,7 @@
         <v>40500</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2942,8 +2967,9 @@
       <c r="C6">
         <v>40920</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -2953,8 +2979,9 @@
       <c r="C7">
         <v>42384</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2964,8 +2991,10 @@
       <c r="C8">
         <v>42061</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -2975,8 +3004,10 @@
       <c r="C9">
         <v>37266</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L9" s="1"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -2986,8 +3017,10 @@
       <c r="C10">
         <v>33535</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L10" s="1"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2997,8 +3030,9 @@
       <c r="C11">
         <v>25831</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -3008,8 +3042,9 @@
       <c r="C12">
         <v>22899</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -3019,8 +3054,9 @@
       <c r="C13">
         <v>20614</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -3031,7 +3067,7 @@
         <v>18421</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -3042,7 +3078,7 @@
         <v>11116</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
